--- a/biology/Botanique/Syntrichia/Syntrichia.xlsx
+++ b/biology/Botanique/Syntrichia/Syntrichia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syntrichia est un genre de bryophytes de la famille des Pottiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 avril 2019) :
 Syntrichia calcicola J.J. Amann
 Syntrichia caninervis Mitt.
 Syntrichia fragilis (Taylor) Ochyra
@@ -528,7 +542,7 @@
 Syntrichia ruralis (Hedw.) F. Weber &amp; D. Mohr
 Syntrichia sinensis (Müll. Hal.) Ochyra
 Syntrichia virescens (De Not.) Ochyra
-Selon Catalogue of Life                                   (14 avril 2019)[3] :
+Selon Catalogue of Life                                   (14 avril 2019) :
 Syntrichia aculeata Zander, 1993
 Syntrichia alpestris Zander, 1993
 Syntrichia ammonsiana Ochyra, 1992
@@ -611,7 +625,7 @@
 Syntrichia subpapillosissima M. T. Gallego &amp; J. Guerra in M. T. Gallego &amp; al., 2002
 Syntrichia virescens Ochyra, 1992
 Syntrichia viridula Zander, 1993
-Selon NCBI  (14 avril 2019)[4] :
+Selon NCBI  (14 avril 2019) :
 Syntrichia ammonsiana (H.A.Crum &amp; L.E.Anderson) Ochyra
 Syntrichia anderssonii (Angstr.) R.H.Zander, 1993
 Syntrichia bidentata (X.L.Bai) Ochyra
@@ -644,7 +658,7 @@
 Syntrichia sinensis Barbula sinensis Muell.Hal.
 Syntrichia submontana (Broth.) Ochyra
 Syntrichia virescens (De Not.) Ochyra
-Selon The Plant List            (14 avril 2019)[5] :
+Selon The Plant List            (14 avril 2019) :
 Syntrichia abranchesii (Luisier) Ochyra
 Syntrichia aciphylla (Bruch &amp; Schimp.) Jur.
 Syntrichia aculeata (Wilson) R.H. Zander
@@ -759,7 +773,7 @@
 Syntrichia virescens (De Not.) Ochyra
 Syntrichia viridula (Müll. Hal.) R.H. Zander
 Syntrichia xerophila (Herzog) S.P. Churchill
-Selon Tropicos                                           (14 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Syntrichia abranchesii (Luisier) Ochyra
 Syntrichia aciphylla (Bruch &amp; Schimp.) Jur.
 Syntrichia aculeata (Wilson) R.H. Zander
